--- a/data/schools_dict.xlsx
+++ b/data/schools_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASUS\Desktop\Wevioo\RH-PROJECT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E90688-82EE-431E-8063-105DDBCA9260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E58251C-8C5D-40E8-B122-D8C3CFAF2D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -325,18 +325,12 @@
     <t>institute higher commercial studies carthage</t>
   </si>
   <si>
-    <t>EPT</t>
-  </si>
-  <si>
     <t xml:space="preserve">ecole polytechnique </t>
   </si>
   <si>
     <t xml:space="preserve">polytechnic school </t>
   </si>
   <si>
-    <t>ESSAI</t>
-  </si>
-  <si>
     <t>ecole superieure statistique analyse information</t>
   </si>
   <si>
@@ -514,15 +508,6 @@
     <t>national institute applied sciences</t>
   </si>
   <si>
-    <t>fs</t>
-  </si>
-  <si>
-    <t>faculte sciences</t>
-  </si>
-  <si>
-    <t>faculty sciences</t>
-  </si>
-  <si>
     <t>iset</t>
   </si>
   <si>
@@ -539,6 +524,21 @@
   </si>
   <si>
     <t>higher institute management</t>
+  </si>
+  <si>
+    <t>fst</t>
+  </si>
+  <si>
+    <t>faculte sciences tunis</t>
+  </si>
+  <si>
+    <t>faculty sciences tunis</t>
+  </si>
+  <si>
+    <t>essai</t>
+  </si>
+  <si>
+    <t>ept</t>
   </si>
 </sst>
 </file>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,22 +917,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1060,13 +1060,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -1140,13 +1140,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -1180,7 +1180,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -1320,7 +1320,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -1400,13 +1400,13 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D25" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
@@ -1420,13 +1420,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" t="s">
         <v>161</v>
-      </c>
-      <c r="C26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" t="s">
-        <v>163</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
@@ -1660,13 +1660,13 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" t="s">
         <v>101</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>102</v>
-      </c>
-      <c r="D38" t="s">
-        <v>103</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
@@ -1680,13 +1680,13 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
         <v>104</v>
-      </c>
-      <c r="C39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" t="s">
-        <v>106</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -1700,13 +1700,13 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="s">
         <v>107</v>
-      </c>
-      <c r="C40" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" t="s">
-        <v>109</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -1720,13 +1720,13 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" t="s">
         <v>110</v>
-      </c>
-      <c r="C41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" t="s">
-        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
@@ -1740,13 +1740,13 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" t="s">
         <v>113</v>
-      </c>
-      <c r="C42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" t="s">
-        <v>115</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
@@ -1760,13 +1760,13 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" t="s">
         <v>116</v>
-      </c>
-      <c r="C43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" t="s">
-        <v>118</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
@@ -1780,16 +1780,16 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" t="s">
         <v>119</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>120</v>
-      </c>
-      <c r="D44" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" t="s">
-        <v>122</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1800,10 +1800,10 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -1820,13 +1820,13 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" t="s">
         <v>125</v>
-      </c>
-      <c r="C46" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" t="s">
-        <v>127</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
@@ -1840,13 +1840,13 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" t="s">
         <v>128</v>
-      </c>
-      <c r="C47" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" t="s">
-        <v>130</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
@@ -1860,13 +1860,13 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" t="s">
         <v>131</v>
-      </c>
-      <c r="C48" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" t="s">
-        <v>133</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
@@ -1880,7 +1880,7 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -1900,7 +1900,7 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -1920,13 +1920,13 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" t="s">
         <v>136</v>
-      </c>
-      <c r="C51" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" t="s">
-        <v>138</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
@@ -1940,10 +1940,10 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1960,7 +1960,7 @@
         <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1980,13 +1980,13 @@
         <v>63</v>
       </c>
       <c r="B54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" t="s">
         <v>142</v>
-      </c>
-      <c r="C54" t="s">
-        <v>143</v>
-      </c>
-      <c r="D54" t="s">
-        <v>144</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
@@ -2000,13 +2000,13 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" t="s">
         <v>145</v>
-      </c>
-      <c r="C55" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" t="s">
-        <v>147</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
@@ -2020,16 +2020,16 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E56" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
